--- a/medicine/Enfance/Bertrand_Gauthier/Bertrand_Gauthier.xlsx
+++ b/medicine/Enfance/Bertrand_Gauthier/Bertrand_Gauthier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bertrand Gauthier (né le 3 mars 1945) est un écrivain québécois originaire de Montréal. Il étudie la littérature à l'Université McGill et œuvre au sein du MEQ. Il co-fonde les Éditions du Tamanoir en 1974[1], avant de fonder, en 1978, les éditions de La Courte Échelle, dont il demeure le président jusqu'en l'an 2000[2]. Depuis 2001, il se consacre à l'écriture en plus de faire de nombreuses rencontres dans les écoles. Le 2 juin 2013, il a reçu un doctorat honoris causa de l'Université du Québec à Montréal pour souligner son importance dans l'essor de la littérature jeunesse au Québec à la fois à titre d'auteur et d'éditeur.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertrand Gauthier (né le 3 mars 1945) est un écrivain québécois originaire de Montréal. Il étudie la littérature à l'Université McGill et œuvre au sein du MEQ. Il co-fonde les Éditions du Tamanoir en 1974, avant de fonder, en 1978, les éditions de La Courte Échelle, dont il demeure le président jusqu'en l'an 2000. Depuis 2001, il se consacre à l'écriture en plus de faire de nombreuses rencontres dans les écoles. Le 2 juin 2013, il a reçu un doctorat honoris causa de l'Université du Québec à Montréal pour souligner son importance dans l'essor de la littérature jeunesse au Québec à la fois à titre d'auteur et d'éditeur.  
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hou ilva, 1976
 Etoifilan, 1976
@@ -638,7 +652,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1980 - Prix de littérature de jeunesse du Conseil des Arts du Canada
 1985 - Prix Alvine-Bélisle
